--- a/src/main/resources/excelTmplate/test.xlsx
+++ b/src/main/resources/excelTmplate/test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C6455F2-C0D7-4218-9780-B50FDC433DF2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>第一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,13 +214,17 @@
   </si>
   <si>
     <t>$E10</t>
+  </si>
+  <si>
+    <t>$NUMn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,19 +541,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,8 +572,11 @@
       <c r="F1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -590,7 +596,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -610,7 +616,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -630,7 +636,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -650,7 +656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -670,7 +676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -690,7 +696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -710,7 +716,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -730,7 +736,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>

--- a/src/main/resources/excelTmplate/test.xlsx
+++ b/src/main/resources/excelTmplate/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5E1B1ED1-2F5E-40E5-8411-C1A577630199}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>第一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,15 +217,23 @@
     <t>$E10</t>
   </si>
   <si>
-    <t>$NUMn</t>
+    <t>$FOR.date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$FOR.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$FOR.age</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,19 +550,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -595,8 +604,11 @@
       <c r="F2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -615,8 +627,11 @@
       <c r="F3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -636,7 +651,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -656,7 +671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -676,7 +691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -696,7 +711,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -716,7 +731,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -736,7 +751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>

--- a/src/main/resources/excelTmplate/test.xlsx
+++ b/src/main/resources/excelTmplate/test.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5E1B1ED1-2F5E-40E5-8411-C1A577630199}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>第一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,74 +165,95 @@
     <t>$D2</t>
   </si>
   <si>
+    <t>$D4</t>
+  </si>
+  <si>
+    <t>$D5</t>
+  </si>
+  <si>
+    <t>$D6</t>
+  </si>
+  <si>
+    <t>$D7</t>
+  </si>
+  <si>
+    <t>$D8</t>
+  </si>
+  <si>
+    <t>$D9</t>
+  </si>
+  <si>
+    <t>$D10</t>
+  </si>
+  <si>
+    <t>$E2</t>
+  </si>
+  <si>
+    <t>$E3</t>
+  </si>
+  <si>
+    <t>$E4</t>
+  </si>
+  <si>
+    <t>$E5</t>
+  </si>
+  <si>
+    <t>$E6</t>
+  </si>
+  <si>
+    <t>$E7</t>
+  </si>
+  <si>
+    <t>$E8</t>
+  </si>
+  <si>
+    <t>$E9</t>
+  </si>
+  <si>
+    <t>$E10</t>
+  </si>
+  <si>
+    <t>$FOR.date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$FOR.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$FOR.age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$D3</t>
-  </si>
-  <si>
-    <t>$D4</t>
-  </si>
-  <si>
-    <t>$D5</t>
-  </si>
-  <si>
-    <t>$D6</t>
-  </si>
-  <si>
-    <t>$D7</t>
-  </si>
-  <si>
-    <t>$D8</t>
-  </si>
-  <si>
-    <t>$D9</t>
-  </si>
-  <si>
-    <t>$D10</t>
-  </si>
-  <si>
-    <t>$E2</t>
-  </si>
-  <si>
-    <t>$E3</t>
-  </si>
-  <si>
-    <t>$E4</t>
-  </si>
-  <si>
-    <t>$E5</t>
-  </si>
-  <si>
-    <t>$E6</t>
-  </si>
-  <si>
-    <t>$E7</t>
-  </si>
-  <si>
-    <t>$E8</t>
-  </si>
-  <si>
-    <t>$E9</t>
-  </si>
-  <si>
-    <t>$E10</t>
-  </si>
-  <si>
-    <t>$FOR.date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$FOR.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$FOR.age</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,8 +289,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -550,228 +574,282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
